--- a/Word/log/log_201608040225_guozhiliang.xlsx
+++ b/Word/log/log_201608040225_guozhiliang.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\workspace\express\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="3255"/>
+    <workbookView xWindow="0" yWindow="2592" windowWidth="13644" windowHeight="5184"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
   <si>
     <t>日期</t>
   </si>
@@ -298,13 +294,25 @@
     <t>5月31号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>创建自己的实体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -370,7 +378,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -687,21 +695,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -712,7 +720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43220</v>
       </c>
@@ -724,7 +732,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -736,7 +744,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -747,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -758,7 +766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -769,7 +777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -780,7 +788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -791,7 +799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -802,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -813,7 +821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -824,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -835,7 +843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -846,7 +854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -857,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -868,7 +876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>63</v>
       </c>
@@ -879,7 +887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -890,7 +898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -901,7 +909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -912,7 +920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -923,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -934,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -945,7 +953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -956,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -967,7 +975,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -978,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -989,7 +997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1000,7 +1008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1011,7 +1019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1022,7 +1030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1033,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1044,7 +1052,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1055,7 +1063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -1066,7 +1074,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -1077,7 +1085,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>57</v>
       </c>
@@ -1088,7 +1096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>58</v>
       </c>
@@ -1099,7 +1107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>59</v>
       </c>
@@ -1110,7 +1118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>60</v>
       </c>
@@ -1121,7 +1129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>61</v>
       </c>
@@ -1132,7 +1140,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43283</v>
       </c>
@@ -1143,7 +1151,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43284</v>
       </c>
@@ -1154,7 +1162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43285</v>
       </c>
@@ -1165,7 +1173,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43286</v>
       </c>
@@ -1176,7 +1184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43287</v>
       </c>
@@ -1185,6 +1193,38 @@
       </c>
       <c r="C44" s="7" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>43317</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>43318</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>43320</v>
       </c>
     </row>
   </sheetData>
@@ -1200,7 +1240,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1213,7 +1253,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Word/log/log_201608040225_guozhiliang.xlsx
+++ b/Word/log/log_201608040225_guozhiliang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2592" windowWidth="13644" windowHeight="5184"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="12945" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>日期</t>
   </si>
@@ -304,6 +304,14 @@
   </si>
   <si>
     <t>上传成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新仓库同步合作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -697,19 +705,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,7 +728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>43220</v>
       </c>
@@ -732,7 +740,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -744,7 +752,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -755,7 +763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -766,7 +774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -777,7 +785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -788,7 +796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -799,7 +807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -810,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -821,7 +829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -832,7 +840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -843,7 +851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -854,7 +862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -865,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -876,7 +884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>63</v>
       </c>
@@ -887,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -898,7 +906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -909,7 +917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -920,7 +928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -931,7 +939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -942,7 +950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -953,7 +961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -964,7 +972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -975,7 +983,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -986,7 +994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -997,7 +1005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1008,7 +1016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1019,7 +1027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1030,7 +1038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1041,7 +1049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1052,7 +1060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1063,7 +1071,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -1074,7 +1082,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -1085,7 +1093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>57</v>
       </c>
@@ -1096,7 +1104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>58</v>
       </c>
@@ -1107,7 +1115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>59</v>
       </c>
@@ -1118,7 +1126,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>60</v>
       </c>
@@ -1129,7 +1137,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>61</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>43283</v>
       </c>
@@ -1151,7 +1159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>43284</v>
       </c>
@@ -1162,7 +1170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>43285</v>
       </c>
@@ -1173,7 +1181,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>43286</v>
       </c>
@@ -1184,7 +1192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>43287</v>
       </c>
@@ -1195,7 +1203,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>43317</v>
       </c>
@@ -1206,7 +1214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>43318</v>
       </c>
@@ -1217,12 +1225,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>43319</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>43320</v>
       </c>
@@ -1240,7 +1254,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1253,7 +1267,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Word/log/log_201608040225_guozhiliang.xlsx
+++ b/Word/log/log_201608040225_guozhiliang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="12945" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="2592" windowWidth="17952" windowHeight="5184"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
   <si>
     <t>日期</t>
   </si>
@@ -312,6 +312,18 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善实体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待组长继续完善项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -703,21 +715,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -728,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43220</v>
       </c>
@@ -740,7 +752,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -752,7 +764,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -763,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -774,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -785,7 +797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -796,7 +808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -807,7 +819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -818,7 +830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -829,7 +841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -840,7 +852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -851,7 +863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -862,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -873,7 +885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -884,7 +896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>63</v>
       </c>
@@ -895,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -906,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -917,7 +929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -928,7 +940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -939,7 +951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -950,7 +962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -961,7 +973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -972,7 +984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -983,7 +995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -994,7 +1006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1005,7 +1017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1016,7 +1028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1027,7 +1039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1038,7 +1050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1049,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1060,7 +1072,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1071,7 +1083,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -1082,7 +1094,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -1093,7 +1105,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>57</v>
       </c>
@@ -1104,7 +1116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>58</v>
       </c>
@@ -1115,7 +1127,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>59</v>
       </c>
@@ -1126,7 +1138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>60</v>
       </c>
@@ -1137,7 +1149,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>61</v>
       </c>
@@ -1148,7 +1160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43283</v>
       </c>
@@ -1159,7 +1171,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43284</v>
       </c>
@@ -1170,7 +1182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43285</v>
       </c>
@@ -1181,7 +1193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43286</v>
       </c>
@@ -1192,7 +1204,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43287</v>
       </c>
@@ -1203,7 +1215,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43317</v>
       </c>
@@ -1214,7 +1226,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>43318</v>
       </c>
@@ -1225,7 +1237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>43319</v>
       </c>
@@ -1236,9 +1248,26 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>43320</v>
+        <v>43327</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>43328</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1283,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1267,7 +1296,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
